--- a/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
+++ b/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>Tarefa</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Reunião Inicial All Handss</t>
   </si>
   <si>
-    <t>Geral</t>
+    <t xml:space="preserve">ONS </t>
   </si>
   <si>
     <t>PV</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Alinhamento Espiritual + Diário Caligrafia + Frase do Dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONS </t>
   </si>
   <si>
     <t>2026-02-03</t>
@@ -501,7 +498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="40.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="61.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -570,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -579,34 +576,34 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -615,70 +612,70 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -687,34 +684,34 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -723,70 +720,70 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -795,40 +792,40 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -837,16 +834,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -855,46 +852,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -903,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1"/>
     </row>

--- a/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
+++ b/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>Tarefa</t>
   </si>
@@ -61,42 +61,48 @@
     <t>Alinhamento Espiritual + Diário Caligrafia + Frase do Dia</t>
   </si>
   <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>Treino físico / Alongamento - Matinal</t>
+  </si>
+  <si>
+    <t>Saúde/Físico</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>Kanban + SCRUM - Segunda/Sexta - Planejamento</t>
+  </si>
+  <si>
+    <t>Planejamento financeiro</t>
+  </si>
+  <si>
+    <t>Pessoal/Espiritual</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>VB Organon - Case Manager (.dat, .dut, .spt, .PWF)</t>
+  </si>
+  <si>
+    <t>Leitura de livros de Física 3</t>
+  </si>
+  <si>
+    <t>Profissional/Estudo</t>
+  </si>
+  <si>
+    <t>“Eat the Frog” – tarefa principal (código ou estudo)</t>
+  </si>
+  <si>
     <t>2026-02-03</t>
   </si>
   <si>
-    <t>Treino físico / Alongamento - Matinal</t>
-  </si>
-  <si>
-    <t>Saúde/Físico</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>Kanban + SCRUM - Segunda/Sexta - Planejamento</t>
-  </si>
-  <si>
-    <t>Planejamento financeiro</t>
-  </si>
-  <si>
-    <t>Pessoal/Espiritual</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>Leitura de livros de Física 3</t>
-  </si>
-  <si>
-    <t>Profissional/Estudo</t>
-  </si>
-  <si>
-    <t>“Eat the Frog” – tarefa principal (código ou estudo)</t>
-  </si>
-  <si>
     <t>Projeto técnico / Debug / NextJS + HTML Apps</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>Projeto ONS - VC Intercambios + Kanban</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
   </si>
   <si>
     <t>Pausa com leitura ou vídeo inspirador</t>
@@ -492,7 +495,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -639,13 +642,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -654,10 +657,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -675,31 +678,31 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -708,7 +711,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -717,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -726,7 +729,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -735,10 +738,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -747,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -756,17 +759,17 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -774,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -783,16 +786,16 @@
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -801,16 +804,16 @@
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -819,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -828,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -837,7 +840,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -864,7 +867,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -873,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -882,27 +885,45 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
+++ b/batcaverna/Projeto_Tarefas_04_02_2026.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Tarefas"/>
+    <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>Tarefa</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Revisão + Diário + Ritual Noturno</t>
-  </si>
-  <si>
-    <t>Saúde/Físicoj</t>
   </si>
   <si>
     <t>Correções do SISBAR e parecer na áreia de barras faltantes</t>
@@ -154,26 +151,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,27 +520,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -212,10 +835,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -253,71 +876,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,7 +968,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -368,11 +991,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -381,13 +1004,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,7 +1020,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -406,7 +1029,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -415,7 +1038,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -423,10 +1046,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -486,30 +1109,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" style="2" width="61.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="58.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="14.15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" ht="19.5" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -545,9 +1166,8 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,9 +1183,8 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -581,9 +1200,8 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -599,9 +1217,8 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -617,9 +1234,8 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -635,9 +1251,8 @@
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -653,9 +1268,8 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -671,9 +1285,8 @@
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -689,9 +1302,8 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -707,9 +1319,8 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -725,9 +1336,8 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -743,9 +1353,8 @@
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -761,9 +1370,8 @@
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -779,9 +1387,8 @@
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    </row>
+    <row r="16" ht="19.5" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -797,9 +1404,8 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    </row>
+    <row r="17" ht="19.5" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -815,9 +1421,8 @@
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    </row>
+    <row r="18" ht="19.5" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -833,9 +1438,8 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    </row>
+    <row r="19" ht="19.5" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -851,9 +1455,8 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    </row>
+    <row r="20" ht="19.5" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -869,9 +1472,8 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    </row>
+    <row r="21" ht="19.5" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -887,14 +1489,13 @@
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    </row>
+    <row r="22" ht="19.5" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -905,14 +1506,13 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    </row>
+    <row r="23" ht="19.5" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -923,9 +1523,9 @@
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>